--- a/pexelpro_bot/db.xlsx
+++ b/pexelpro_bot/db.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
-    <t>request</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>message</t>
+  </si>
+  <si>
+    <t>records</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,7 +397,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -405,47 +405,47 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
